--- a/03 PE/010 重定向表.xlsx
+++ b/03 PE/010 重定向表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EACE06-86A8-43D2-B640-6A3252CFC845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76915A37-C2F6-4DA7-8F5F-9802BA190E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="843">
   <si>
     <t>重定位表：</t>
   </si>
@@ -148,6 +148,7 @@
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>VirtualAddress</t>
@@ -156,6 +157,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -214,6 +216,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>101010101010</t>
@@ -243,6 +246,7 @@
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>宽度：2字节</t>
@@ -287,6 +291,7 @@
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>宽度：4字节</t>
@@ -310,6 +315,7 @@
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>宽度：4字节</t>
@@ -2604,13 +2610,30 @@
   </si>
   <si>
     <t>#endif // !defined(AFX_PETOOL_H__BC9AE6DA_8D52_4356_9802_921968C7E3DA__INCLUDED_)</t>
+  </si>
+  <si>
+    <t>exe的重定向表被擦除了，也没影响，</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   exe的重定向表被擦除了，也没影响。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   重定位表记录着该pe中所有绝对地址的RVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   当该pe没有按ImageBase加载到内存中时，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   系统会通过重定位表的rva找到对应绝对地址，并进行修改(加上ImageBase的差值即可)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2620,6 +2643,7 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2627,6 +2651,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2634,11 +2659,13 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2658,6 +2685,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2786,7 +2819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2869,6 +2902,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4105,42 +4141,75 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B3:J10"/>
+  <dimension ref="B3:S13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G9" s="22" t="s">
         <v>5</v>
       </c>
@@ -4148,9 +4217,14 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -4162,7 +4236,7 @@
     <hyperlink ref="G7:I7" location="CheckRelocationInfo.cpp!A1" display="1、打印所有重定位信息" xr:uid="{CFB12A17-A393-4D90-A82C-97FD35B2FF3D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4172,11 +4246,9 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B4:M41"/>
+  <dimension ref="B4:M42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4356,8 +4428,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="22" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="22" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4496,8 +4573,8 @@
   </sheetPr>
   <dimension ref="B4:L58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView showGridLines="0" topLeftCell="A26" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
